--- a/data/0. old data/0. raw/2016/companies/biotest.xlsx
+++ b/data/0. old data/0. raw/2016/companies/biotest.xlsx
@@ -1224,9 +1224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2184,7 +2184,7 @@
         <v>303</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N31" s="4"/>
     </row>
